--- a/public/731kelime.xlsx
+++ b/public/731kelime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C71E8C-2A56-4FFC-BDD0-CEBAE808B266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834AABE0-06A3-4C5C-B1A0-32EB918EB7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="731KELİME" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'731KELİME'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'731KELİME'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1432">
   <si>
     <t>arabic_word</t>
   </si>
@@ -4330,13 +4330,16 @@
   </si>
   <si>
     <t>Şaşırmak, hayret etmek</t>
+  </si>
+  <si>
+    <t>kelime_cinsi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4378,6 +4381,13 @@
       <name val="Algerian"/>
       <family val="5"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4399,7 +4409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4414,6 +4424,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4748,27 +4759,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
-  <dimension ref="A1:B732"/>
+  <dimension ref="A1:C731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="48.875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="48.375" style="2"/>
+    <col min="2" max="2" width="48.375" style="2"/>
+    <col min="3" max="3" width="25.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="48.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" ht="33">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="51">
+      <c r="C1" s="6" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="51">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -4776,7 +4792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="51">
+    <row r="3" spans="1:3" ht="51">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -4784,7 +4800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="51">
+    <row r="4" spans="1:3" ht="51">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -4792,7 +4808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="51">
+    <row r="5" spans="1:3" ht="51">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -4800,7 +4816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="51">
+    <row r="6" spans="1:3" ht="51">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4808,7 +4824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="51">
+    <row r="7" spans="1:3" ht="51">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -4816,7 +4832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="51">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4824,7 +4840,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="51">
+    <row r="9" spans="1:3" ht="51">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -4832,7 +4848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="51">
+    <row r="10" spans="1:3" ht="51">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -4840,7 +4856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="51">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -4848,7 +4864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="51">
+    <row r="12" spans="1:3" ht="51">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -4856,7 +4872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="51">
+    <row r="13" spans="1:3" ht="51">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -4864,7 +4880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="51">
+    <row r="14" spans="1:3" ht="51">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -4872,7 +4888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="51">
+    <row r="15" spans="1:3" ht="51">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -4880,7 +4896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="51">
+    <row r="16" spans="1:3" ht="51">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -5810,666 +5826,666 @@
     </row>
     <row r="132" spans="1:2" ht="51">
       <c r="A132" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="51">
       <c r="A133" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="51">
       <c r="A134" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="51">
       <c r="A135" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="51">
       <c r="A136" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="51">
       <c r="A137" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="51">
       <c r="A138" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="51">
       <c r="A139" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="51">
       <c r="A140" s="4" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="51">
       <c r="A141" s="4" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="51">
       <c r="A142" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="51">
       <c r="A143" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="51">
       <c r="A144" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B144" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="51">
       <c r="A145" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="51">
       <c r="A146" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B146" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="51">
       <c r="A147" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B147" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="51">
       <c r="A148" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B148" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="51">
       <c r="A149" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B149" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="51">
       <c r="A150" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B150" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="51">
       <c r="A151" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="51">
       <c r="A152" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="51">
       <c r="A153" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="51">
       <c r="A154" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B154" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="51">
       <c r="A155" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="51">
       <c r="A156" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="51">
       <c r="A157" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="51">
       <c r="A158" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="51">
       <c r="A159" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B159" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="51">
       <c r="A160" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B160" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="51">
       <c r="A161" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="51">
       <c r="A162" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="51">
       <c r="A163" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="51">
       <c r="A164" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B164" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="51">
       <c r="A165" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B165" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="51">
       <c r="A166" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B166" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="51">
       <c r="A167" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="51">
       <c r="A168" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B168" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="51">
       <c r="A169" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B169" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="51">
       <c r="A170" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B170" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="51">
       <c r="A171" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B171" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="51">
       <c r="A172" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B172" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="51">
       <c r="A173" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="51">
       <c r="A174" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B174" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="51">
       <c r="A175" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B175" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="51">
       <c r="A176" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B176" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="51">
       <c r="A177" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="51">
       <c r="A178" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="51">
       <c r="A179" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B179" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="51">
       <c r="A180" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B180" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="51">
       <c r="A181" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="51">
       <c r="A182" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B182" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="51">
       <c r="A183" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B183" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="51">
       <c r="A184" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B184" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="51">
       <c r="A185" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B185" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="51">
       <c r="A186" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B186" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="51">
       <c r="A187" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B187" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="51">
       <c r="A188" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="51">
       <c r="A189" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B189" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="51">
       <c r="A190" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B190" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="51">
       <c r="A191" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B191" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="51">
       <c r="A192" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="51">
       <c r="A193" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B193" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="51">
       <c r="A194" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B194" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="51">
       <c r="A195" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B195" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="51">
       <c r="A196" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B196" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="51">
       <c r="A197" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B197" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="51">
       <c r="A198" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B198" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="51">
       <c r="A199" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="51">
       <c r="A200" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B200" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="51">
       <c r="A201" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B201" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="51">
       <c r="A202" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B202" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="51">
       <c r="A203" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B203" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="51">
       <c r="A204" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B204" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="51">
       <c r="A205" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B205" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="51">
       <c r="A206" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B206" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="51">
       <c r="A207" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B207" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="51">
       <c r="A208" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B208" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="51">
       <c r="A209" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B209" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="51">
       <c r="A210" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B210" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="51">
       <c r="A211" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B211" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="51">
       <c r="A212" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B212" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="51">
       <c r="A213" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B213" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="51">
       <c r="A214" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B214" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="51">
@@ -6477,132 +6493,132 @@
         <v>423</v>
       </c>
       <c r="B215" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="51">
       <c r="A216" s="4" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B216" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="51">
       <c r="A217" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B217" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="51">
       <c r="A218" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B218" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="51">
       <c r="A219" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B219" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="51">
       <c r="A220" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B220" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="51">
       <c r="A221" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B221" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="51">
       <c r="A222" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B222" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="51">
       <c r="A223" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B223" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="51">
       <c r="A224" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B224" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="51">
       <c r="A225" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B225" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="51">
       <c r="A226" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B226" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="51">
       <c r="A227" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B227" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="51">
       <c r="A228" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B228" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="51">
       <c r="A229" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B229" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="51">
       <c r="A230" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B230" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="51">
       <c r="A231" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B231" t="s">
         <v>455</v>
@@ -6610,63 +6626,63 @@
     </row>
     <row r="232" spans="1:2" ht="51">
       <c r="A232" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B232" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="51">
       <c r="A233" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B233" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="51">
       <c r="A234" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B234" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="51">
       <c r="A235" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B235" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="51">
       <c r="A236" s="4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B236" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="51">
       <c r="A237" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B237" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="51">
       <c r="A238" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B238" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="51">
       <c r="A239" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B239" t="s">
         <v>470</v>
@@ -6674,135 +6690,135 @@
     </row>
     <row r="240" spans="1:2" ht="51">
       <c r="A240" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B240" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="51">
       <c r="A241" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B241" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="51">
       <c r="A242" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B242" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="51">
       <c r="A243" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B243" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="51">
       <c r="A244" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B244" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="51">
       <c r="A245" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B245" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="51">
       <c r="A246" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B246" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="51">
       <c r="A247" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B247" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="51">
       <c r="A248" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B248" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="51">
       <c r="A249" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B249" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="51">
       <c r="A250" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B250" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="51">
       <c r="A251" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B251" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="51">
       <c r="A252" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B252" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="51">
       <c r="A253" s="4" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B253" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="51">
       <c r="A254" s="4" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B254" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="51">
       <c r="A255" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B255" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="51">
       <c r="A256" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B256" t="s">
         <v>503</v>
@@ -6810,223 +6826,223 @@
     </row>
     <row r="257" spans="1:2" ht="51">
       <c r="A257" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B257" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="51">
       <c r="A258" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B258" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="51">
       <c r="A259" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B259" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="51">
       <c r="A260" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B260" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="51">
       <c r="A261" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B261" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="51">
       <c r="A262" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B262" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="51">
       <c r="A263" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B263" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="51">
       <c r="A264" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B264" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="51">
       <c r="A265" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B265" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="51">
       <c r="A266" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B266" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="51">
       <c r="A267" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B267" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="51">
       <c r="A268" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B268" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="51">
       <c r="A269" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B269" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="51">
       <c r="A270" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B270" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="51">
       <c r="A271" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B271" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="51">
       <c r="A272" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B272" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="51">
       <c r="A273" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B273" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="51">
       <c r="A274" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B274" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="51">
       <c r="A275" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B275" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="51">
       <c r="A276" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B276" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="51">
       <c r="A277" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B277" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="51">
       <c r="A278" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B278" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="51">
       <c r="A279" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B279" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="51">
       <c r="A280" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B280" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="51">
       <c r="A281" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B281" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="51">
       <c r="A282" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B282" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="51">
       <c r="A283" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B283" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="51">
       <c r="A284" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B284" t="s">
         <v>558</v>
@@ -7034,175 +7050,175 @@
     </row>
     <row r="285" spans="1:2" ht="51">
       <c r="A285" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B285" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="51">
       <c r="A286" s="4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B286" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="51">
       <c r="A287" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B287" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="51">
       <c r="A288" s="4" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B288" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="51">
       <c r="A289" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B289" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="51">
       <c r="A290" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B290" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="51">
       <c r="A291" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B291" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="51">
       <c r="A292" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B292" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="51">
       <c r="A293" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B293" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="51">
       <c r="A294" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B294" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="51">
       <c r="A295" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B295" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="51">
       <c r="A296" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B296" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="51">
       <c r="A297" s="4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B297" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="51">
       <c r="A298" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B298" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="51">
       <c r="A299" s="4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B299" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="51">
       <c r="A300" s="4" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B300" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="51">
       <c r="A301" s="4" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B301" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="51">
       <c r="A302" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B302" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="51">
       <c r="A303" s="4" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B303" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="51">
       <c r="A304" s="4" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B304" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="51">
       <c r="A305" s="4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B305" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="51">
       <c r="A306" s="4" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B306" t="s">
         <v>601</v>
@@ -7210,170 +7226,170 @@
     </row>
     <row r="307" spans="1:2" ht="51">
       <c r="A307" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B307" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="51">
       <c r="A308" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B308" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="51">
       <c r="A309" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B309" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="51">
       <c r="A310" s="4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B310" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="51">
       <c r="A311" s="4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B311" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="51">
       <c r="A312" s="4" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B312" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="51">
       <c r="A313" s="4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B313" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="51">
       <c r="A314" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B314" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="51">
       <c r="A315" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B315" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="51">
       <c r="A316" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B316" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="51">
       <c r="A317" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B317" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="51">
       <c r="A318" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B318" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="51">
       <c r="A319" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B319" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="51">
       <c r="A320" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B320" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="51">
       <c r="A321" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B321" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="51">
       <c r="A322" s="4" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B322" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="51">
       <c r="A323" s="4" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B323" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="51">
       <c r="A324" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B324" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="51">
       <c r="A325" s="4" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B325" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="51">
       <c r="A326" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B326" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="51">
       <c r="A327" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B327" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="51">
@@ -7381,36 +7397,36 @@
         <v>643</v>
       </c>
       <c r="B328" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="51">
       <c r="A329" s="4" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B329" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="51">
       <c r="A330" s="4" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B330" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="51">
       <c r="A331" s="4" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B331" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="51">
       <c r="A332" s="4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B332" t="s">
         <v>651</v>
@@ -7418,311 +7434,311 @@
     </row>
     <row r="333" spans="1:2" ht="51">
       <c r="A333" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B333" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="51">
       <c r="A334" s="4" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B334" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="51">
       <c r="A335" s="4" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B335" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="51">
       <c r="A336" s="4" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B336" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="51">
       <c r="A337" s="4" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B337" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="51">
       <c r="A338" s="4" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B338" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="51">
       <c r="A339" s="4" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B339" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="51">
       <c r="A340" s="4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B340" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="51">
       <c r="A341" s="4" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B341" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="51">
       <c r="A342" s="4" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B342" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="51">
       <c r="A343" s="4" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B343" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="51">
       <c r="A344" s="4" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B344" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="51">
       <c r="A345" s="4" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B345" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="51">
       <c r="A346" s="4" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B346" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="51">
       <c r="A347" s="4" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B347" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="51">
       <c r="A348" s="4" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B348" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="51">
       <c r="A349" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B349" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="51">
       <c r="A350" s="4" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B350" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="51">
       <c r="A351" s="4" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B351" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="51">
       <c r="A352" s="4" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B352" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="51">
       <c r="A353" s="4" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B353" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="51">
       <c r="A354" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B354" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="51">
       <c r="A355" s="4" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B355" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="51">
       <c r="A356" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B356" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="51">
       <c r="A357" s="4" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B357" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="51">
       <c r="A358" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B358" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="51">
       <c r="A359" s="4" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B359" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="51">
       <c r="A360" s="4" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B360" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="51">
       <c r="A361" s="4" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B361" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="51">
       <c r="A362" s="4" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B362" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="51">
       <c r="A363" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B363" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="51">
       <c r="A364" s="4" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B364" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="51">
       <c r="A365" s="4" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B365" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="51">
       <c r="A366" s="4" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B366" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="51">
       <c r="A367" s="4" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B367" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="51">
       <c r="A368" s="4" t="s">
-        <v>721</v>
+        <v>110</v>
       </c>
       <c r="B368" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="51">
       <c r="A369" s="4" t="s">
-        <v>110</v>
+        <v>724</v>
       </c>
       <c r="B369" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="51">
       <c r="A370" s="4" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B370" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="51">
       <c r="A371" s="4" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B371" t="s">
         <v>727</v>
@@ -7730,282 +7746,282 @@
     </row>
     <row r="372" spans="1:2" ht="51">
       <c r="A372" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B372" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="51">
       <c r="A373" s="4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B373" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="51">
       <c r="A374" s="4" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B374" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="51">
       <c r="A375" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B375" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="51">
       <c r="A376" s="4" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B376" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="51">
       <c r="A377" s="4" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B377" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="51">
       <c r="A378" s="4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B378" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="51">
       <c r="A379" s="4" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B379" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="51">
       <c r="A380" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B380" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="51">
       <c r="A381" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B381" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="51">
       <c r="A382" s="4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B382" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="51">
       <c r="A383" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B383" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="51">
       <c r="A384" s="4" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B384" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="51">
       <c r="A385" s="4" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B385" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="51">
       <c r="A386" s="4" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B386" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="51">
       <c r="A387" s="4" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B387" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="51">
       <c r="A388" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B388" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="51">
       <c r="A389" s="4" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B389" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="51">
       <c r="A390" s="4" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B390" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="51">
       <c r="A391" s="4" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B391" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="51">
       <c r="A392" s="4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B392" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="51">
       <c r="A393" s="4" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B393" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="51">
       <c r="A394" s="4" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B394" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="51">
       <c r="A395" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B395" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="51">
       <c r="A396" s="4" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B396" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="51">
       <c r="A397" s="4" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B397" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="51">
       <c r="A398" s="4" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B398" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="51">
       <c r="A399" s="4" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B399" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="51">
       <c r="A400" s="4" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B400" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="51">
       <c r="A401" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B401" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="51">
       <c r="A402" s="4" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B402" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="51">
       <c r="A403" s="4" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B403" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="51">
       <c r="A404" s="4" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B404" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="51">
       <c r="A405" s="4" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B405" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="51">
       <c r="A406" s="4" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B406" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="51">
@@ -8013,980 +8029,980 @@
         <v>797</v>
       </c>
       <c r="B407" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="51">
       <c r="A408" s="4" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B408" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="51">
       <c r="A409" s="4" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B409" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="51">
       <c r="A410" s="4" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B410" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="51">
       <c r="A411" s="4" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B411" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="51">
       <c r="A412" s="4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B412" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="51">
       <c r="A413" s="4" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B413" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="51">
       <c r="A414" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B414" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="51">
       <c r="A415" s="4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B415" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="51">
       <c r="A416" s="4" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B416" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="51">
       <c r="A417" s="4" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B417" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="51">
       <c r="A418" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B418" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="51">
       <c r="A419" s="4" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B419" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="51">
       <c r="A420" s="4" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B420" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="51">
       <c r="A421" s="4" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B421" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="51">
       <c r="A422" s="4" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B422" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="51">
       <c r="A423" s="4" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B423" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="51">
       <c r="A424" s="4" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B424" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="51">
       <c r="A425" s="4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B425" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="51">
       <c r="A426" s="4" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B426" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="51">
       <c r="A427" s="4" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B427" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="51">
       <c r="A428" s="4" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="B428" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="51">
       <c r="A429" s="4" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B429" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="51">
       <c r="A430" s="4" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B430" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="51">
       <c r="A431" s="4" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B431" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="51">
       <c r="A432" s="4" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B432" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="51">
       <c r="A433" s="4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B433" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="51">
       <c r="A434" s="4" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B434" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="51">
       <c r="A435" s="4" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B435" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="51">
       <c r="A436" s="4" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B436" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="51">
       <c r="A437" s="4" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B437" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="51">
       <c r="A438" s="4" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B438" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="51">
       <c r="A439" s="4" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B439" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="51">
       <c r="A440" s="4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B440" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="51">
       <c r="A441" s="4" t="s">
-        <v>863</v>
+        <v>769</v>
       </c>
       <c r="B441" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="51">
       <c r="A442" s="4" t="s">
-        <v>769</v>
+        <v>866</v>
       </c>
       <c r="B442" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="51">
       <c r="A443" s="4" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B443" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="51">
       <c r="A444" s="4" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B444" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="51">
       <c r="A445" s="4" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B445" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="51">
       <c r="A446" s="4" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B446" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="51">
       <c r="A447" s="4" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B447" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="51">
       <c r="A448" s="4" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B448" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="51">
       <c r="A449" s="4" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B449" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="51">
       <c r="A450" s="4" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B450" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="51">
       <c r="A451" s="4" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B451" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="51">
       <c r="A452" s="4" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B452" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="51">
       <c r="A453" s="4" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B453" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="51">
       <c r="A454" s="4" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B454" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="51">
       <c r="A455" s="4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B455" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="51">
       <c r="A456" s="4" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B456" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="51">
       <c r="A457" s="4" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B457" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="51">
       <c r="A458" s="4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B458" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="51">
       <c r="A459" s="4" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B459" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="51">
       <c r="A460" s="4" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B460" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="51">
       <c r="A461" s="4" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B461" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="51">
       <c r="A462" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B462" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="51">
       <c r="A463" s="4" t="s">
-        <v>906</v>
+        <v>661</v>
       </c>
       <c r="B463" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="51">
       <c r="A464" s="4" t="s">
-        <v>661</v>
+        <v>909</v>
       </c>
       <c r="B464" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="51">
       <c r="A465" s="4" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B465" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="51">
       <c r="A466" s="4" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B466" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="51">
       <c r="A467" s="4" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B467" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="51">
       <c r="A468" s="4" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B468" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="51">
       <c r="A469" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B469" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="51">
       <c r="A470" s="4" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B470" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="51">
       <c r="A471" s="4" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B471" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="51">
       <c r="A472" s="4" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B472" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="51">
       <c r="A473" s="4" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B473" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="51">
       <c r="A474" s="4" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B474" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="51">
       <c r="A475" s="4" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B475" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="51">
       <c r="A476" s="4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B476" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="51">
       <c r="A477" s="4" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B477" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="51">
       <c r="A478" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B478" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="51">
       <c r="A479" s="4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B479" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="51">
       <c r="A480" s="4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B480" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="51">
       <c r="A481" s="4" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B481" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="51">
       <c r="A482" s="4" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B482" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="51">
       <c r="A483" s="4" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B483" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="51">
       <c r="A484" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B484" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="51">
       <c r="A485" s="4" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B485" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="51">
       <c r="A486" s="4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B486" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="51">
       <c r="A487" s="4" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B487" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="51">
       <c r="A488" s="4" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B488" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="51">
       <c r="A489" s="4" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B489" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="51">
       <c r="A490" s="4" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B490" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="51">
       <c r="A491" s="4" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B491" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="51">
       <c r="A492" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B492" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="51">
       <c r="A493" s="4" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B493" t="s">
-        <v>966</v>
+        <v>7</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="51">
       <c r="A494" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B494" t="s">
-        <v>7</v>
+        <v>969</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="51">
       <c r="A495" s="4" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B495" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="51">
       <c r="A496" s="4" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B496" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="51">
       <c r="A497" s="4" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B497" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="51">
       <c r="A498" s="4" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B498" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="51">
       <c r="A499" s="4" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B499" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="51">
       <c r="A500" s="4" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B500" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="51">
       <c r="A501" s="4" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B501" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="51">
       <c r="A502" s="4" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B502" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="51">
       <c r="A503" s="4" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B503" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="51">
       <c r="A504" s="4" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B504" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="51">
       <c r="A505" s="4" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B505" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="51">
       <c r="A506" s="4" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B506" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="51">
       <c r="A507" s="4" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B507" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="51">
       <c r="A508" s="4" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B508" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="51">
       <c r="A509" s="4" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B509" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="51">
       <c r="A510" s="4" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B510" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="51">
       <c r="A511" s="4" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B511" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="51">
       <c r="A512" s="4" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B512" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="51">
       <c r="A513" s="4" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B513" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="51">
       <c r="A514" s="4" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B514" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="51">
       <c r="A515" s="4" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B515" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="51">
       <c r="A516" s="4" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B516" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="51">
       <c r="A517" s="4" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B517" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="51">
       <c r="A518" s="4" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B518" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="51">
       <c r="A519" s="4" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B519" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="51">
       <c r="A520" s="4" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B520" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="51">
       <c r="A521" s="4" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B521" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="51">
       <c r="A522" s="4" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B522" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="51">
       <c r="A523" s="4" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B523" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="51">
       <c r="A524" s="4" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B524" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="51">
       <c r="A525" s="4" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B525" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="51">
       <c r="A526" s="4" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B526" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="51">
       <c r="A527" s="4" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B527" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="51">
       <c r="A528" s="4" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B528" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="51">
       <c r="A529" s="4" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B529" t="s">
         <v>1037</v>
@@ -8994,362 +9010,362 @@
     </row>
     <row r="530" spans="1:2" ht="51">
       <c r="A530" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B530" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="51">
       <c r="A531" s="4" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B531" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="51">
       <c r="A532" s="4" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B532" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="51">
       <c r="A533" s="4" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B533" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="51">
       <c r="A534" s="4" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B534" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="51">
       <c r="A535" s="4" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B535" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="51">
       <c r="A536" s="4" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B536" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="51">
       <c r="A537" s="4" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B537" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="51">
       <c r="A538" s="4" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B538" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="51">
       <c r="A539" s="4" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B539" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="51">
       <c r="A540" s="4" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B540" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="51">
       <c r="A541" s="4" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B541" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="51">
       <c r="A542" s="4" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B542" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="51">
       <c r="A543" s="4" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B543" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="51">
       <c r="A544" s="4" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B544" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="51">
       <c r="A545" s="4" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B545" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="51">
       <c r="A546" s="4" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B546" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="51">
       <c r="A547" s="4" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B547" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="51">
       <c r="A548" s="4" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B548" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="51">
       <c r="A549" s="4" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B549" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="51">
       <c r="A550" s="4" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B550" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="51">
       <c r="A551" s="4" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B551" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="51">
       <c r="A552" s="4" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B552" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="51">
       <c r="A553" s="4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B553" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="51">
       <c r="A554" s="4" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B554" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="51">
       <c r="A555" s="4" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B555" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="51">
       <c r="A556" s="4" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B556" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="51">
       <c r="A557" s="4" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B557" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="51">
       <c r="A558" s="4" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B558" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="51">
       <c r="A559" s="4" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B559" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="51">
       <c r="A560" s="4" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="B560" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="51">
       <c r="A561" s="4" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B561" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="51">
       <c r="A562" s="4" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B562" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="51">
       <c r="A563" s="4" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B563" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="51">
       <c r="A564" s="4" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B564" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="51">
       <c r="A565" s="4" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B565" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="51">
       <c r="A566" s="4" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B566" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="51">
       <c r="A567" s="4" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B567" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="51">
       <c r="A568" s="4" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B568" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="51">
       <c r="A569" s="4" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B569" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="51">
       <c r="A570" s="4" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B570" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="51">
       <c r="A571" s="4" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B571" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="51">
       <c r="A572" s="4" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B572" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="51">
       <c r="A573" s="4" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B573" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="51">
       <c r="A574" s="4" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B574" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="51">
@@ -9362,682 +9378,682 @@
     </row>
     <row r="576" spans="1:2" ht="51">
       <c r="A576" s="4" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B576" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="51">
       <c r="A577" s="4" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B577" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="51">
       <c r="A578" s="4" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B578" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="51">
       <c r="A579" s="4" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B579" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="51">
       <c r="A580" s="4" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B580" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="51">
       <c r="A581" s="4" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B581" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="51">
       <c r="A582" s="4" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B582" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="51">
       <c r="A583" s="4" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B583" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="51">
       <c r="A584" s="4" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B584" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="51">
       <c r="A585" s="4" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B585" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="51">
       <c r="A586" s="4" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B586" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="51">
       <c r="A587" s="4" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B587" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="51">
       <c r="A588" s="4" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B588" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="51">
       <c r="A589" s="4" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B589" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="51">
       <c r="A590" s="4" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B590" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="51">
       <c r="A591" s="4" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B591" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="51">
       <c r="A592" s="4" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B592" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="51">
       <c r="A593" s="4" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B593" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="51">
       <c r="A594" s="4" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B594" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="51">
       <c r="A595" s="4" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B595" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="51">
       <c r="A596" s="4" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B596" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="51">
       <c r="A597" s="4" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B597" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="51">
       <c r="A598" s="4" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B598" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="51">
       <c r="A599" s="4" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B599" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="51">
       <c r="A600" s="4" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B600" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="51">
       <c r="A601" s="4" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B601" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="51">
       <c r="A602" s="4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B602" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="51">
       <c r="A603" s="4" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B603" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="51">
       <c r="A604" s="4" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B604" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="51">
       <c r="A605" s="4" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B605" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="51">
       <c r="A606" s="4" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B606" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="51">
       <c r="A607" s="4" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B607" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="51">
       <c r="A608" s="4" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B608" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="51">
       <c r="A609" s="4" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B609" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="51">
       <c r="A610" s="4" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B610" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="51">
       <c r="A611" s="4" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B611" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="51">
       <c r="A612" s="4" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B612" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="51">
       <c r="A613" s="4" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B613" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="51">
       <c r="A614" s="4" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B614" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="51">
       <c r="A615" s="4" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B615" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="51">
       <c r="A616" s="4" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B616" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="51">
       <c r="A617" s="4" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B617" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="51">
       <c r="A618" s="4" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B618" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="51">
       <c r="A619" s="4" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="B619" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="51">
       <c r="A620" s="4" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="B620" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="51">
       <c r="A621" s="4" t="s">
-        <v>1217</v>
+        <v>229</v>
       </c>
       <c r="B621" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="51">
       <c r="A622" s="4" t="s">
-        <v>229</v>
+        <v>1220</v>
       </c>
       <c r="B622" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="51">
       <c r="A623" s="4" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="B623" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="51">
       <c r="A624" s="4" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B624" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="51">
       <c r="A625" s="4" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B625" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="51">
       <c r="A626" s="4" t="s">
-        <v>1226</v>
+        <v>4</v>
       </c>
       <c r="B626" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="51">
       <c r="A627" s="4" t="s">
-        <v>4</v>
+        <v>1229</v>
       </c>
       <c r="B627" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="51">
       <c r="A628" s="4" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B628" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="51">
       <c r="A629" s="4" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B629" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="51">
       <c r="A630" s="4" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B630" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="631" spans="1:2" ht="51">
       <c r="A631" s="4" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B631" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="51">
       <c r="A632" s="4" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B632" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="51">
       <c r="A633" s="4" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B633" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="51">
       <c r="A634" s="4" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B634" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="51">
       <c r="A635" s="4" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B635" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="51">
       <c r="A636" s="4" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="B636" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="51">
       <c r="A637" s="4" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B637" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="51">
       <c r="A638" s="4" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="B638" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="51">
       <c r="A639" s="4" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="B639" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="51">
       <c r="A640" s="4" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="B640" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="51">
       <c r="A641" s="4" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B641" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="51">
       <c r="A642" s="4" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="B642" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="643" spans="1:2" ht="51">
       <c r="A643" s="4" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="B643" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="51">
       <c r="A644" s="4" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="B644" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="645" spans="1:2" ht="51">
       <c r="A645" s="4" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="B645" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="51">
       <c r="A646" s="4" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B646" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="51">
       <c r="A647" s="4" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="B647" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="648" spans="1:2" ht="51">
       <c r="A648" s="4" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B648" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="51">
       <c r="A649" s="4" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B649" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="51">
       <c r="A650" s="4" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="B650" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="51">
       <c r="A651" s="4" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="B651" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="51">
       <c r="A652" s="4" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="B652" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="51">
       <c r="A653" s="4" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B653" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="51">
       <c r="A654" s="4" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B654" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="655" spans="1:2" ht="51">
       <c r="A655" s="4" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B655" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="51">
       <c r="A656" s="4" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B656" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="51">
       <c r="A657" s="4" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B657" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="51">
       <c r="A658" s="4" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="B658" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="51">
       <c r="A659" s="4" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="B659" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="51">
       <c r="A660" s="4" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="B660" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="661" spans="1:2" ht="51">
@@ -10050,71 +10066,71 @@
     </row>
     <row r="662" spans="1:2" ht="51">
       <c r="A662" s="4" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B662" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="663" spans="1:2" ht="51">
       <c r="A663" s="4" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B663" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="664" spans="1:2" ht="51">
       <c r="A664" s="4" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="B664" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="51">
       <c r="A665" s="4" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B665" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="51">
       <c r="A666" s="4" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="B666" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="667" spans="1:2" ht="51">
       <c r="A667" s="4" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B667" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="51">
       <c r="A668" s="4" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B668" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="51">
       <c r="A669" s="4" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B669" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="51">
       <c r="A670" s="4" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B670" t="s">
         <v>1312</v>
@@ -10122,23 +10138,23 @@
     </row>
     <row r="671" spans="1:2" ht="51">
       <c r="A671" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B671" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="51">
       <c r="A672" s="4" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B672" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="673" spans="1:2" ht="51">
       <c r="A673" s="4" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B673" t="s">
         <v>1317</v>
@@ -10146,375 +10162,375 @@
     </row>
     <row r="674" spans="1:2" ht="51">
       <c r="A674" s="4" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B674" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="51">
       <c r="A675" s="4" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="B675" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="51">
       <c r="A676" s="4" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B676" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="51">
       <c r="A677" s="4" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B677" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="51">
       <c r="A678" s="4" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B678" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="51">
       <c r="A679" s="4" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B679" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="680" spans="1:2" ht="51">
       <c r="A680" s="4" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B680" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="51">
       <c r="A681" s="4" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="B681" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="51">
       <c r="A682" s="4" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B682" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="683" spans="1:2" ht="51">
       <c r="A683" s="4" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="B683" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="51">
       <c r="A684" s="4" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B684" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="685" spans="1:2" ht="51">
       <c r="A685" s="4" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B685" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="51">
       <c r="A686" s="4" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="B686" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="51">
       <c r="A687" s="4" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="B687" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="51">
       <c r="A688" s="4" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="B688" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="689" spans="1:2" ht="51">
       <c r="A689" s="4" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="B689" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="51">
       <c r="A690" s="4" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="B690" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="51">
       <c r="A691" s="4" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="B691" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="51">
       <c r="A692" s="4" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="B692" t="s">
-        <v>1354</v>
+        <v>6</v>
       </c>
     </row>
     <row r="693" spans="1:2" ht="51">
       <c r="A693" s="4" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B693" t="s">
-        <v>6</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="51">
       <c r="A694" s="4" t="s">
-        <v>1356</v>
+        <v>2</v>
       </c>
       <c r="B694" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="51">
       <c r="A695" s="4" t="s">
-        <v>2</v>
+        <v>1359</v>
       </c>
       <c r="B695" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="51">
       <c r="A696" s="4" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B696" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="51">
       <c r="A697" s="4" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="B697" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="51">
       <c r="A698" s="4" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="B698" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="51">
       <c r="A699" s="4" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="B699" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="51">
       <c r="A700" s="4" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="B700" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="701" spans="1:2" ht="51">
       <c r="A701" s="4" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="B701" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="51">
       <c r="A702" s="4" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="B702" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="51">
       <c r="A703" s="4" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="B703" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="51">
       <c r="A704" s="4" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="B704" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="51">
       <c r="A705" s="4" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="B705" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="51">
       <c r="A706" s="4" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="B706" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="51">
       <c r="A707" s="4" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B707" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="51">
       <c r="A708" s="4" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="B708" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="51">
       <c r="A709" s="4" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B709" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="51">
       <c r="A710" s="4" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B710" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="51">
       <c r="A711" s="4" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B711" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="51">
       <c r="A712" s="4" t="s">
-        <v>1391</v>
+        <v>3</v>
       </c>
       <c r="B712" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="51">
       <c r="A713" s="4" t="s">
-        <v>3</v>
+        <v>1394</v>
       </c>
       <c r="B713" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="51">
       <c r="A714" s="4" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="B714" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="51">
       <c r="A715" s="4" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="B715" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="51">
       <c r="A716" s="4" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="B716" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="717" spans="1:2" ht="51">
       <c r="A717" s="4" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="B717" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="51">
       <c r="A718" s="4" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B718" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="51">
       <c r="A719" s="4" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="B719" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="51">
       <c r="A720" s="4" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B720" t="s">
         <v>1407</v>
@@ -10522,102 +10538,94 @@
     </row>
     <row r="721" spans="1:2" ht="51">
       <c r="A721" s="4" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B721" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="722" spans="1:2" ht="51">
       <c r="A722" s="4" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B722" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="723" spans="1:2" ht="51">
       <c r="A723" s="4" t="s">
-        <v>1411</v>
+        <v>440</v>
       </c>
       <c r="B723" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="51">
       <c r="A724" s="4" t="s">
-        <v>440</v>
+        <v>1414</v>
       </c>
       <c r="B724" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="725" spans="1:2" ht="51">
       <c r="A725" s="4" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="B725" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="51">
       <c r="A726" s="4" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B726" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="51">
       <c r="A727" s="4" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="B727" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="51">
       <c r="A728" s="4" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="B728" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="729" spans="1:2" ht="51">
       <c r="A729" s="4" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B729" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="730" spans="1:2" ht="51">
       <c r="A730" s="4" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B730" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="731" spans="1:2" ht="51">
       <c r="A731" s="4" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B731" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" ht="51">
-      <c r="A732" s="4" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B732" t="s">
         <v>1429</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}"/>
+  <autoFilter ref="A1:C1" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/731kelime.xlsx
+++ b/public/731kelime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834AABE0-06A3-4C5C-B1A0-32EB918EB7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9E4EE4-A449-4132-9C39-AE445D09C7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="731KELİME" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'731KELİME'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'731KELİME'!$A$1:$C$731</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4762,7 +4762,7 @@
   <dimension ref="A1:C731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="19.5"/>
@@ -10625,7 +10625,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}"/>
+  <autoFilter ref="A1:C731" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
